--- a/content/species/data/sp_mammals_table4.xlsx
+++ b/content/species/data/sp_mammals_table4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29518"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sanbiorgza.sharepoint.com/sites/RedListsquad/Shared Documents/General/NBA 2025/Quarto prep/Mammals/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\species\quarto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{14887689-2AFE-43D9-98BF-EA8EB8593172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{487A0FC8-53C8-45C5-AC1F-035BA45B3CC9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75160C5C-DF7F-4FE9-8A31-B402DCF4AF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{39392A82-9B23-41C8-848D-92849F9B34D2}"/>
+    <workbookView xWindow="41390" yWindow="2340" windowWidth="17280" windowHeight="10070" xr2:uid="{39392A82-9B23-41C8-848D-92849F9B34D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Climate change finding-Table" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>Time Period </t>
   </si>
   <si>
-    <t>Black-footed cat (Felis nigripes)</t>
-  </si>
-  <si>
     <t>-11% </t>
   </si>
   <si>
@@ -62,98 +59,101 @@
     <t>2011-2040 </t>
   </si>
   <si>
-    <t>Fynbos golden mole (Amblysomus corriae)</t>
-  </si>
-  <si>
     <t>-2% </t>
   </si>
   <si>
-    <t>Namaqua dune mole-rat (Bathyergus janetta)</t>
-  </si>
-  <si>
     <t>-4% </t>
   </si>
   <si>
     <t>-1% </t>
   </si>
   <si>
-    <t>Riverine rabbit (Bunolagus monticularis)</t>
-  </si>
-  <si>
     <t>-34% </t>
   </si>
   <si>
     <t>-37% </t>
   </si>
   <si>
-    <t>Bontebok (Damaliscus pygargus pygargus)</t>
-  </si>
-  <si>
     <t>2041-2070 </t>
   </si>
   <si>
-    <t>Cape mountain zebra (Equus zebra zebra)</t>
-  </si>
-  <si>
     <t>-14% </t>
   </si>
   <si>
     <t>-9% </t>
   </si>
   <si>
-    <t>Bush-tailed hairy-footed gerbil (Gerbillurus vallinus)</t>
-  </si>
-  <si>
     <t>+19% </t>
   </si>
   <si>
     <t>+20% </t>
   </si>
   <si>
-    <t>Spectacled dormouse (Graphiurus acularis)</t>
-  </si>
-  <si>
     <t>-3% </t>
   </si>
   <si>
-    <t>Verreaux's mouse (Myomyscus verreauxii)</t>
-  </si>
-  <si>
     <t>-18% </t>
   </si>
   <si>
-    <t>Vlei rat (Otomys auratus)</t>
-  </si>
-  <si>
-    <t>Fynbos vlei rat (Otomys irroratus)</t>
-  </si>
-  <si>
     <t>-7% </t>
   </si>
   <si>
     <t>-6% </t>
   </si>
   <si>
-    <t>Springhare (Pedetes capensis)</t>
-  </si>
-  <si>
     <t>+1% </t>
   </si>
   <si>
-    <t>Barbour's rock mouse (Petromyscus barbouri)</t>
-  </si>
-  <si>
-    <t>Grysbok (Raphicerus melanotis)</t>
-  </si>
-  <si>
     <t>0% </t>
+  </si>
+  <si>
+    <t>Black-footed cat (*Felis nigripes*)</t>
+  </si>
+  <si>
+    <t>Fynbos golden mole (*Amblysomus corriae*)</t>
+  </si>
+  <si>
+    <t>Namaqua dune mole-rat (*Bathyergus janetta*)</t>
+  </si>
+  <si>
+    <t>Riverine rabbit (*Bunolagus monticularis*)</t>
+  </si>
+  <si>
+    <t>Bontebok (*Damaliscus pygargus pygargus*)</t>
+  </si>
+  <si>
+    <t>Cape mountain zebra (*Equus zebra zebra*)</t>
+  </si>
+  <si>
+    <t>Bush-tailed hairy-footed gerbil (*Gerbillurus vallinus*)</t>
+  </si>
+  <si>
+    <t>Spectacled dormouse (*Graphiurus acularis*)</t>
+  </si>
+  <si>
+    <t>Verreaux's mouse (*Myomyscus verreauxii*)</t>
+  </si>
+  <si>
+    <t>Vlei rat (*Otomys auratus*)</t>
+  </si>
+  <si>
+    <t>Fynbos vlei rat (*Otomys irroratus*)</t>
+  </si>
+  <si>
+    <t>Springhare (*Pedetes capensis*)</t>
+  </si>
+  <si>
+    <t>Barbour's rock mouse (*Petromyscus barbouri*)</t>
+  </si>
+  <si>
+    <t>Grysbok (*Raphicerus melanotis*)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,18 +530,18 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="45.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="45.26171875" customWidth="1"/>
+    <col min="2" max="2" width="22.15625" customWidth="1"/>
+    <col min="3" max="3" width="22.83984375" customWidth="1"/>
+    <col min="4" max="4" width="16.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,200 +555,200 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -757,6 +757,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="d08e37f2-beba-4595-a3e8-aa91f032b3fc" xsi:nil="true"/>
@@ -767,15 +776,6 @@
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1057,13 +1057,41 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6BDE839-9D06-4C16-861A-5E012A4044B5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F3E9C3A-3915-4FFB-99E6-1C349E95250C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F3E9C3A-3915-4FFB-99E6-1C349E95250C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6BDE839-9D06-4C16-861A-5E012A4044B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d08e37f2-beba-4595-a3e8-aa91f032b3fc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="de6781d5-cbdf-44cc-b8b1-919d4413b058"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D48ED4A5-3E27-41ED-9956-3E282433E0E2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D48ED4A5-3E27-41ED-9956-3E282433E0E2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="de6781d5-cbdf-44cc-b8b1-919d4413b058"/>
+    <ds:schemaRef ds:uri="d08e37f2-beba-4595-a3e8-aa91f032b3fc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>